--- a/biology/Médecine/Juan_César_Mussio-Fournier/Juan_César_Mussio-Fournier.xlsx
+++ b/biology/Médecine/Juan_César_Mussio-Fournier/Juan_César_Mussio-Fournier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juan_C%C3%A9sar_Mussio-Fournier</t>
+          <t>Juan_César_Mussio-Fournier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juan César Mussio-Fournier, né le 7 février 1890 à Montevideo (Uruguay) et mort le 1er janvier 1961, est un neurologue, endocrinologue, médecin et ministre uruguayen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan_C%C3%A9sar_Mussio-Fournier</t>
+          <t>Juan_César_Mussio-Fournier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juan César Mussio-Fournier est né au sein d'une famille intellectuelle. Il avait des origines franco-italiennes par ses parents. L'influence française est venue de sa mère, Dona Pepita Fournier Reissig, veuve à 23 ans et qui a élevé ses enfants seule, Juan César et Rafael. Son père, Juan Mussio, avait étudié la médecine, qu’il abandonna pour la carrière d’avocat avant de mourir à 28 ans avec le désir insatiable de devenir médecin. Il était, lui-même, fils d'un émigré italien de Gênes, Juan Mussi.  
 En 1917, Juan César Mussio-Fournier termine ses études de médecine est devient médecin-chirurgien à l'hôpital Pasteur de Montevideo. En 1920, il est devenu chef de clinique. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juan_C%C3%A9sar_Mussio-Fournier</t>
+          <t>Juan_César_Mussio-Fournier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(es) Biographie de Juan César Mussio-Fournier
  Portail de la médecine   Portail de l’Uruguay                    </t>
